--- a/sem1/Успеваемость_С-ИП-21-2.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/software-modeling-and-analysis/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F8C812-316E-5643-8720-A8AC83ED4BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6DDEBF-640D-FE48-96B3-23D57F6F36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
   <si>
     <t>№</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
   </si>
 </sst>
 </file>
@@ -1609,7 +1612,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1632,12 +1635,14 @@
         <v>45174</v>
       </c>
       <c r="D1" s="3">
-        <v>45052</v>
+        <v>45175</v>
       </c>
       <c r="E1" s="3">
         <v>45188</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="3">
+        <v>45189</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1676,7 +1681,9 @@
       <c r="E2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1715,7 +1722,9 @@
       <c r="E3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1754,7 +1763,9 @@
       <c r="E4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1793,7 +1804,9 @@
       <c r="E5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1832,7 +1845,9 @@
       <c r="E6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1871,7 +1886,9 @@
       <c r="E7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1910,7 +1927,9 @@
       <c r="E8" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1947,9 +1966,11 @@
         <v>19</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1988,7 +2009,9 @@
       <c r="E10" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -2022,12 +2045,14 @@
         <v>19</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -2066,7 +2091,9 @@
       <c r="E12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2105,7 +2132,9 @@
       <c r="E13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2144,7 +2173,9 @@
       <c r="E14" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2183,7 +2214,9 @@
       <c r="E15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -2222,7 +2255,9 @@
       <c r="E16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2261,7 +2296,9 @@
       <c r="E17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -2300,7 +2337,9 @@
       <c r="E18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="32" t="s">
+        <v>20</v>
+      </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -2348,7 +2387,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2378,7 +2417,9 @@
       <c r="C1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="20" t="s">
+        <v>23</v>
+      </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
@@ -2413,7 +2454,9 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="10"/>
@@ -2431,7 +2474,9 @@
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="10"/>
@@ -2493,7 +2538,9 @@
       <c r="C7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -2528,7 +2575,9 @@
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -2564,7 +2613,9 @@
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -2602,7 +2653,9 @@
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="10"/>
@@ -2638,7 +2691,9 @@
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>

--- a/sem1/Успеваемость_С-ИП-21-2.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/software-modeling-and-analysis/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6DDEBF-640D-FE48-96B3-23D57F6F36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25DC8EF-C611-C846-9056-129F4A5274B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="25">
   <si>
     <t>№</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Лаб 2</t>
+  </si>
+  <si>
+    <t>------------</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -371,7 +374,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -379,6 +381,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1612,14 +1626,15 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="11" width="9.1640625" style="38" customWidth="1"/>
+    <col min="12" max="20" width="9.1640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1631,23 +1646,27 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="35">
         <v>45174</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="35">
         <v>45175</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="35">
         <v>45188</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="35">
         <v>45189</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="35">
+        <v>45202</v>
+      </c>
+      <c r="H1" s="35">
+        <v>45203</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
       <c r="L1" s="4"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1672,23 +1691,27 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="F2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="7"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1713,23 +1736,27 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="E3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
@@ -1754,23 +1781,27 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="E4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
@@ -1795,23 +1826,27 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="C5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1836,23 +1871,27 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="G6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -1877,23 +1916,27 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="32" t="s">
+      <c r="C7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="F7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
@@ -1918,23 +1961,27 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="G8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
@@ -1959,23 +2006,27 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="32" t="s">
+      <c r="E9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="F9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
       <c r="L9" s="7"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -2000,23 +2051,27 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="C10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="7"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -2041,23 +2096,27 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="F11" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="7"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
@@ -2082,23 +2141,27 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="C12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="7"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
@@ -2123,23 +2186,27 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="C13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="7"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
@@ -2164,23 +2231,27 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="G14" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="7"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
@@ -2205,23 +2276,27 @@
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="C15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="7"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -2246,23 +2321,27 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="32" t="s">
+      <c r="C16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="G16" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="7"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
@@ -2287,23 +2366,27 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="32" t="s">
+      <c r="C17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="F17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="7"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
@@ -2328,23 +2411,27 @@
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="C18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="7"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
@@ -2387,7 +2474,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2414,7 +2501,7 @@
       <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="20" t="s">
@@ -2454,7 +2541,7 @@
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="12"/>
@@ -2474,7 +2561,7 @@
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="12"/>
@@ -2494,10 +2581,12 @@
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12"/>
+      <c r="C5" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -2514,7 +2603,7 @@
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="12"/>
@@ -2535,10 +2624,10 @@
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="12"/>
@@ -2575,7 +2664,7 @@
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="12"/>
@@ -2613,7 +2702,7 @@
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="10"/>
@@ -2633,7 +2722,7 @@
       <c r="B12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="12"/>
@@ -2653,7 +2742,7 @@
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="12"/>
@@ -2691,7 +2780,7 @@
       <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="10"/>
@@ -2711,7 +2800,9 @@
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="34" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -2729,7 +2820,7 @@
       <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12"/>

--- a/sem1/Успеваемость_С-ИП-21-2.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/software-modeling-and-analysis/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25DC8EF-C611-C846-9056-129F4A5274B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F9255B-F87C-3248-8AD5-6C2EABA9E585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="26">
   <si>
     <t>№</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>------------</t>
+  </si>
+  <si>
+    <t>Лаб 3</t>
   </si>
 </sst>
 </file>
@@ -323,7 +326,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,10 +391,13 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1624,17 +1629,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="11" width="9.1640625" style="38" customWidth="1"/>
-    <col min="12" max="20" width="9.1640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="6.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="9.1640625" style="36" customWidth="1"/>
+    <col min="18" max="20" width="9.1640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1646,43 +1655,51 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35">
+      <c r="C1" s="34">
         <v>45174</v>
       </c>
-      <c r="D1" s="35">
+      <c r="D1" s="34">
         <v>45175</v>
       </c>
-      <c r="E1" s="35">
+      <c r="E1" s="34">
         <v>45188</v>
       </c>
-      <c r="F1" s="35">
+      <c r="F1" s="34">
         <v>45189</v>
       </c>
-      <c r="G1" s="35">
+      <c r="G1" s="34">
         <v>45202</v>
       </c>
-      <c r="H1" s="35">
+      <c r="H1" s="34">
         <v>45203</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="I1" s="34">
+        <v>45216</v>
+      </c>
+      <c r="J1" s="34">
+        <v>45217</v>
+      </c>
+      <c r="K1" s="34">
+        <v>45230</v>
+      </c>
+      <c r="L1" s="4">
+        <v>45244</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
       <c r="R1" s="3"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
@@ -1691,43 +1708,51 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
+      <c r="F2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -1736,43 +1761,51 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
+      <c r="C3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
@@ -1781,43 +1814,51 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="36" t="s">
+      <c r="C4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
+      <c r="I4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
     </row>
     <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
@@ -1826,43 +1867,51 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
+      <c r="G5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
@@ -1871,43 +1920,51 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="36" t="s">
+      <c r="C6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="H6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
@@ -1916,43 +1973,51 @@
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="C7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -1961,43 +2026,51 @@
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
+      <c r="C8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
@@ -2006,43 +2079,51 @@
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
+      <c r="H9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
     </row>
     <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
@@ -2051,43 +2132,51 @@
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
+      <c r="C10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
@@ -2096,43 +2185,51 @@
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
+      <c r="E11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
     </row>
     <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
@@ -2141,43 +2238,51 @@
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
+      <c r="C12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
@@ -2186,43 +2291,51 @@
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
+      <c r="C13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
@@ -2231,43 +2344,51 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="C14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -2276,43 +2397,51 @@
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
+      <c r="C15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -2321,43 +2450,51 @@
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
+      <c r="C16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
@@ -2366,43 +2503,51 @@
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="36" t="s">
+      <c r="C17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
+      <c r="H17" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
@@ -2411,43 +2556,51 @@
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
+      <c r="C18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
@@ -2473,17 +2626,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -2495,361 +2646,389 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="29"/>
+      <c r="E1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="30"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="29"/>
+      <c r="C3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="30"/>
+      <c r="C4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="29"/>
+      <c r="C5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="26"/>
+      <c r="C6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="30"/>
+      <c r="C7" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="31"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="29"/>
+      <c r="C9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="30"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="29"/>
+      <c r="C11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="29"/>
+      <c r="C12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="29"/>
+      <c r="C13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="30"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="29"/>
+      <c r="C15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="28"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="29"/>
+      <c r="C17" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="30"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:K18 L6:M6">

--- a/sem1/Успеваемость_С-ИП-21-2.xlsx
+++ b/sem1/Успеваемость_С-ИП-21-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/software-modeling-and-analysis/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F9255B-F87C-3248-8AD5-6C2EABA9E585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97F620F-4B5E-184A-9E31-9C10568F8BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="2300" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="27">
   <si>
     <t>№</t>
   </si>
@@ -144,6 +144,9 @@
   <si>
     <t>Лаб 3</t>
   </si>
+  <si>
+    <t>Лаб 4</t>
+  </si>
 </sst>
 </file>
 
@@ -167,12 +170,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
@@ -180,6 +177,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -316,14 +319,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -346,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -366,45 +366,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1629,20 +1676,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="166" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="166" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="6.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="6.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.1640625" style="36" customWidth="1"/>
+    <col min="3" max="6" width="6.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.1640625" style="35" customWidth="1"/>
     <col min="18" max="20" width="9.1640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.83203125" style="1" customWidth="1"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
@@ -1655,962 +1702,1012 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34">
+      <c r="C1" s="33">
         <v>45174</v>
       </c>
-      <c r="D1" s="34">
+      <c r="D1" s="33">
         <v>45175</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="33">
         <v>45188</v>
       </c>
-      <c r="F1" s="34">
+      <c r="F1" s="33">
         <v>45189</v>
       </c>
-      <c r="G1" s="34">
+      <c r="G1" s="33">
         <v>45202</v>
       </c>
-      <c r="H1" s="34">
+      <c r="H1" s="33">
         <v>45203</v>
       </c>
-      <c r="I1" s="34">
+      <c r="I1" s="33">
         <v>45216</v>
       </c>
-      <c r="J1" s="34">
+      <c r="J1" s="33">
         <v>45217</v>
       </c>
-      <c r="K1" s="34">
+      <c r="K1" s="33">
         <v>45230</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="39">
         <v>45244</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
+      <c r="M1" s="33">
+        <v>45258</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
     </row>
     <row r="2" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
+      <c r="F2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
     </row>
     <row r="3" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="14"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
+      <c r="C3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
     </row>
     <row r="4" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="35" t="s">
+      <c r="C4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
+      <c r="I4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
     </row>
     <row r="5" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="C5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
+      <c r="G5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
     </row>
     <row r="6" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="C6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="H6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
+      <c r="C7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
+      <c r="C8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
     </row>
     <row r="9" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="35" t="s">
+      <c r="F9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
+      <c r="H9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
     </row>
     <row r="10" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
+      <c r="C10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
+      <c r="E11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
     </row>
     <row r="12" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
+      <c r="C12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
     </row>
     <row r="13" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
+      <c r="C13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
     </row>
     <row r="14" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
+      <c r="C14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
     </row>
     <row r="15" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="C15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
+      <c r="C16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
     </row>
     <row r="17" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="35" t="s">
+      <c r="C17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
+      <c r="H17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
+      <c r="C18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:L18">
-    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:XFD18">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2626,16 +2723,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" zoomScale="178" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
-    <col min="3" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -2646,399 +2742,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="28"/>
+      <c r="F1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="29"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="28"/>
+      <c r="C3" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="28"/>
+      <c r="C5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="25"/>
+      <c r="C6" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="29"/>
+      <c r="C7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="30"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="28"/>
+      <c r="C9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="29"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="28"/>
+      <c r="C11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="28"/>
+      <c r="C12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="28"/>
+      <c r="C13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="29"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="28"/>
+      <c r="C15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="28"/>
+      <c r="C16" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="27"/>
     </row>
     <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="28"/>
+      <c r="C17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="27"/>
     </row>
     <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="29"/>
+      <c r="C18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:K18 L6:M6">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"#"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
